--- a/src/main/resources/attendanceformat.xlsx
+++ b/src/main/resources/attendanceformat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\agnext\atdformatter\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95967BF0-2390-4526-AE12-8FAA2BC5A38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461FEE49-793F-4A50-8399-739BBE149464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -775,7 +775,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,7 +795,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1264,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="C1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1277,117 +1276,116 @@
     <col min="7" max="16384" width="0" style="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C6" s="23" t="s">
+    <row r="4" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C6" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:4" ht="3" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:4" ht="0.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-    </row>
-    <row r="10" spans="1:4" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="29" t="s">
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="3:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="3:4" ht="3" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="3:4" ht="0.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="3:4" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+    </row>
+    <row r="11" spans="3:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="30"/>
-    </row>
-    <row r="12" spans="1:4" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-    </row>
-    <row r="13" spans="1:4" ht="3" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-    </row>
-    <row r="14" spans="1:4" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-    </row>
-    <row r="15" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="15" t="s">
+      <c r="D11" s="29"/>
+    </row>
+    <row r="12" spans="3:4" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="3:4" ht="3" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="3:4" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="3:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:4" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="3:4" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="3:4" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="3:4" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="3:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="3:4" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="3:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="3:4" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="3:4" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" spans="3:4" ht="16.5" x14ac:dyDescent="0.3"/>
     <row r="27" spans="3:4" ht="16.5" x14ac:dyDescent="0.3"/>
@@ -1417,7 +1415,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1435,39 +1433,39 @@
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="37"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="36"/>
     </row>
     <row r="2" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -1717,7 +1715,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1733,39 +1731,39 @@
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="37"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="36"/>
     </row>
     <row r="2" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
